--- a/TestIP003.xlsx
+++ b/TestIP003.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irfan\Documents\GitHub\testingIntegrationPackage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F652369-A1C0-47EA-944F-FD1A395257E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA36692-EE7B-4240-9C28-5A3EACD7E49C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1575" windowWidth="20490" windowHeight="9345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Salesforce_LContact001" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="118">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -375,9 +375,6 @@
   </si>
   <si>
     <t>User should be able to view the e-mail to either Approve/Reject the request.</t>
-  </si>
-  <si>
-    <t>Approved</t>
   </si>
 </sst>
 </file>
@@ -769,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -841,9 +838,6 @@
       <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
-        <v>118</v>
-      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
@@ -1393,7 +1387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0"/>
+    <sheetView topLeftCell="H1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/TestIP003.xlsx
+++ b/TestIP003.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irfan\Documents\GitHub\testingIntegrationPackage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA36692-EE7B-4240-9C28-5A3EACD7E49C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0246D264-9C2E-480C-9396-8D098A7DCC21}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1575" windowWidth="20490" windowHeight="9345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Salesforce_LContact001" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="119">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -375,6 +375,9 @@
   </si>
   <si>
     <t>User should be able to view the e-mail to either Approve/Reject the request.</t>
+  </si>
+  <si>
+    <t>Approved</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J42" totalsRowShown="0">
-  <autoFilter ref="A1:J42" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <autoFilter ref="A1:J42" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Step 1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TestCaseID"/>
@@ -767,7 +776,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,8 +847,11 @@
       <c r="H2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>17</v>
       </c>
@@ -872,8 +884,11 @@
       <c r="H4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>25</v>
       </c>
@@ -887,7 +902,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>28</v>
       </c>
@@ -901,7 +916,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>32</v>
       </c>
@@ -915,7 +930,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>36</v>
       </c>
@@ -948,8 +963,11 @@
       <c r="H9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>17</v>
       </c>
@@ -960,7 +978,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>29</v>
       </c>
@@ -993,8 +1011,11 @@
       <c r="H12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>17</v>
       </c>
@@ -1005,7 +1026,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>29</v>
       </c>
@@ -1016,7 +1037,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>33</v>
       </c>
@@ -1027,7 +1048,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>36</v>
       </c>
@@ -1038,7 +1059,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>57</v>
       </c>
@@ -1049,7 +1070,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>60</v>
       </c>
@@ -1060,7 +1081,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>63</v>
       </c>
@@ -1071,7 +1092,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1093,8 +1114,11 @@
       <c r="H20" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>17</v>
       </c>
@@ -1105,7 +1129,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>29</v>
       </c>
@@ -1116,7 +1140,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>33</v>
       </c>
@@ -1127,7 +1151,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>36</v>
       </c>
@@ -1138,7 +1162,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
         <v>57</v>
       </c>
@@ -1149,7 +1173,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>60</v>
       </c>
@@ -1160,7 +1184,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>63</v>
       </c>
@@ -1171,7 +1195,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -1193,8 +1217,11 @@
       <c r="H28" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>77</v>
       </c>
@@ -1208,7 +1235,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>29</v>
       </c>
@@ -1219,7 +1246,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
         <v>33</v>
       </c>
@@ -1230,7 +1257,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
         <v>36</v>
       </c>
@@ -1241,7 +1268,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
         <v>57</v>
       </c>
@@ -1252,7 +1279,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>82</v>
       </c>
@@ -1274,8 +1301,11 @@
       <c r="H34" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F35" t="s">
         <v>17</v>
       </c>
@@ -1286,7 +1316,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F36" t="s">
         <v>29</v>
       </c>
@@ -1297,7 +1327,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F37" t="s">
         <v>33</v>
       </c>
@@ -1308,7 +1338,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
         <v>36</v>
       </c>
@@ -1319,7 +1349,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>91</v>
       </c>
@@ -1341,8 +1371,11 @@
       <c r="H39" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F40" t="s">
         <v>17</v>
       </c>
@@ -1353,7 +1386,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
         <v>29</v>
       </c>
@@ -1364,7 +1397,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
         <v>33</v>
       </c>
@@ -1387,7 +1420,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1457,6 +1492,9 @@
       <c r="H2" t="s">
         <v>100</v>
       </c>
+      <c r="I2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
@@ -1471,6 +1509,9 @@
       <c r="H3" t="s">
         <v>27</v>
       </c>
+      <c r="I3" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
@@ -1485,6 +1526,9 @@
       <c r="H4" t="s">
         <v>35</v>
       </c>
+      <c r="I4" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
@@ -1499,6 +1543,9 @@
       <c r="H5" t="s">
         <v>103</v>
       </c>
+      <c r="I5" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
@@ -1510,6 +1557,9 @@
       <c r="H6" t="s">
         <v>105</v>
       </c>
+      <c r="I6" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
@@ -1521,6 +1571,9 @@
       <c r="H7" t="s">
         <v>107</v>
       </c>
+      <c r="I7" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
@@ -1532,6 +1585,9 @@
       <c r="H8" t="s">
         <v>109</v>
       </c>
+      <c r="I8" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
@@ -1543,6 +1599,9 @@
       <c r="H9" t="s">
         <v>111</v>
       </c>
+      <c r="I9" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
@@ -1554,6 +1613,9 @@
       <c r="H10" t="s">
         <v>114</v>
       </c>
+      <c r="I10" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
@@ -1564,6 +1626,9 @@
       </c>
       <c r="H11" t="s">
         <v>117</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
